--- a/Java8.xlsx
+++ b/Java8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup Files\Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\technicaldetails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCADA21-71ED-40C6-BE52-5B54ECB95DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2524F80D-5E13-45DB-8FDE-F7620DBB2982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{ED72D8B5-6A2C-4D71-A537-7CF43E0AE709}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{ED72D8B5-6A2C-4D71-A537-7CF43E0AE709}"/>
   </bookViews>
   <sheets>
     <sheet name="MetaSpace" sheetId="1" r:id="rId1"/>
@@ -689,27 +689,7 @@
     <t>Callable</t>
   </si>
   <si>
-    <t>Runnable interface provides one method "run" whose return type is void. But if the task has to return a value then use Callable Interface
-public class Task implements Callable&lt;T&gt; {
-  @override
-   public T call(){
-     return T;
-   }
-}</t>
-  </si>
-  <si>
     <t>Future</t>
-  </si>
-  <si>
-    <t>now when the service is submitted we immediately get a Future retrun type which we can use to fetch the return data from the task.
-But if we call future.get() then the main thread blocks until the task execution is complete and value is returned
-Future&lt;Integer&gt; future = service.submit(new Task); 
-T output = furute.get()// blocking call, say we ran 4 tasks and call get on future 1 but furure 3 and 4 has been already returned still main thread is blocked as future 1 is waiting for task1 to complete
-One way to avoid is to use time out during get
-T output = future.get(timeOut: 10, TimeUnit.SECONDS);
-future.cancel(mayInterruptIfRunning: false);
-future.isCancelled(); // return true if task was cancelled
-future.isDone(); //Returns true if task is completed (successfully or otherwise)</t>
   </si>
   <si>
     <t>volatile</t>
@@ -830,9 +810,6 @@
     <t>Data Locality</t>
   </si>
   <si>
-    <t>say we have two cores-core1 and core1 and localcahche1 and localcache2 and a shared cache</t>
-  </si>
-  <si>
     <t>if we have multiple threads say the scheduler gives t1 access to run on core1 and t1 stores some data to localcache1 and now it gives access to t2 and so localcache1 must be flushed and so that t2 data can be stored and again t1 gets access and so scheduler must flush localcache1 and load t1 data. This is called data locality where localcache must be flushed with previous thread data and load with current thread data</t>
   </si>
   <si>
@@ -1139,6 +1116,33 @@
       </rPr>
       <t>suppyAsync takes supplier or supplier and ExecuterService/threadpool</t>
     </r>
+  </si>
+  <si>
+    <t>say we have two cores-core1 and core2 and localcahche1 and localcache2 and a shared cache</t>
+  </si>
+  <si>
+    <t>now when the service is submitted we immediately get a Future retrun type which we can use to fetch the return data from the task.
+But if we call future.get() then the main thread blocks until the task execution is complete and value is returned
+Future&lt;Integer&gt; future = service.submit(new Task); 
+T output = furute.get()// blocking call, say we ran 4 tasks and call get on future 1 but furure 3 and 4 has been already returned still main thread is blocked as future 1 is waiting for task1 to complete
+One way to avoid is to use time out during get
+T output = future.get(timeOut: 10, TimeUnit.SECONDS);
+future.cancel(mayInterruptIfRunning: false);
+future.isCancelled(); // return true if task was cancelled
+future.isDone(); //Returns true if task is completed (successfully or otherwise)
+Whenever you mention "as soon as a future task is complete", you want to use CompletableFuture and its .thenApply() method, as @drekbour suggests.
+Then you have multiple threads running different tasks in non-determenistic sequence. But at the end you want to get all the results in the single (Main) thread. To achieve it, you can use CompletableFuture.allOf method, .join() it - and then iterate over all the (already completed) future results without waiting.</t>
+  </si>
+  <si>
+    <t>Runnable interface provides one method "run" whose return type is void. But if the task has to return a value then use Callable Interface
+public class Task implements Callable&lt;T&gt; {
+  @override
+   public T call(){
+     return T;
+   }
+}
+However, Runnable instances can be run by Thread class as well as ExecutorService but Callable instances can only be executed via ExecutorService.
+https://medium.com/@asatryanmanuk2000/callable-runnable-future-exploring-javas-asynchronous-task-models-da74b700efb2</t>
   </si>
 </sst>
 </file>
@@ -1220,9 +1224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1260,7 +1264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1366,7 +1370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1508,7 +1512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1520,13 +1524,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="157.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="157.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1544,17 +1548,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B45B62A-2C1B-484F-B507-062C0B797324}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="139.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="139.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1562,7 +1564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1570,7 +1572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1578,7 +1580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1586,12 +1588,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1599,7 +1601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1607,7 +1609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1624,15 +1626,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC5E82A-1462-46E8-9CE4-00FADCA4300A}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="137.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="137.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1648,12 +1650,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1677,12 +1679,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1690,7 +1692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1698,7 +1700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1706,12 +1708,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="345" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1727,12 +1729,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1740,7 +1742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -1748,7 +1750,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1756,12 +1758,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1769,7 +1771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -1777,7 +1779,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1785,7 +1787,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -1793,7 +1795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1801,7 +1803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
@@ -1809,7 +1811,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1817,7 +1819,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -1825,7 +1827,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -1833,7 +1835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
@@ -1841,7 +1843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -1849,7 +1851,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>67</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
@@ -1865,7 +1867,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -1873,7 +1875,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -1881,7 +1883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>76</v>
       </c>
@@ -1889,7 +1891,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>77</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>81</v>
       </c>
@@ -1913,7 +1915,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>83</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>87</v>
       </c>
@@ -1937,7 +1939,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>89</v>
       </c>
@@ -1945,7 +1947,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>91</v>
       </c>
@@ -1953,12 +1955,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>94</v>
       </c>
@@ -1966,7 +1968,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>95</v>
       </c>
@@ -1974,7 +1976,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>96</v>
       </c>
@@ -1982,7 +1984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>97</v>
       </c>
@@ -1990,7 +1992,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>102</v>
       </c>
@@ -1998,7 +2000,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>104</v>
       </c>
@@ -2006,7 +2008,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>106</v>
       </c>
@@ -2024,17 +2026,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57146015-E872-4770-B1BE-CE58D4538DC5}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.26953125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="138.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="138.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>108</v>
       </c>
@@ -2042,7 +2044,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>110</v>
       </c>
@@ -2050,7 +2052,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
@@ -2058,7 +2060,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>114</v>
       </c>
@@ -2066,12 +2068,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>117</v>
       </c>
@@ -2079,7 +2081,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -2087,7 +2089,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>119</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -2103,7 +2105,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>125</v>
       </c>
@@ -2111,27 +2113,27 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>117</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>131</v>
       </c>
@@ -2147,7 +2149,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>118</v>
       </c>
@@ -2155,7 +2157,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>119</v>
       </c>
@@ -2163,7 +2165,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>132</v>
       </c>
@@ -2171,7 +2173,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>128</v>
       </c>
@@ -2179,7 +2181,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>137</v>
       </c>
@@ -2187,7 +2189,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>138</v>
       </c>
@@ -2195,7 +2197,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>139</v>
       </c>
@@ -2203,7 +2205,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>140</v>
       </c>
@@ -2211,7 +2213,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>146</v>
       </c>
@@ -2219,25 +2221,25 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="B38" s="3" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2250,194 +2252,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88258C1E-5DC3-4642-B09E-BE5C412E3C09}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="133" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="10" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="B22" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="116" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="203" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B33" s="3" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="116" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
